--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\daniehei\github\SNN\MATSimAPI\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEBBB72-F78B-45E0-9A36-5E4830A4FF76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC1E2D-A4D9-440D-B081-9A2AACFC00A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="8390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
   <si>
     <t>variable</t>
   </si>
@@ -34,6 +34,9 @@
     <t>unit</t>
   </si>
   <si>
+    <t>imp</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -64,12 +67,21 @@
     <t>is_leader</t>
   </si>
   <si>
+    <t>isco_clerical</t>
+  </si>
+  <si>
     <t>isco_craft</t>
   </si>
   <si>
     <t>isco_elementary</t>
   </si>
   <si>
+    <t>isco_machine_operators</t>
+  </si>
+  <si>
+    <t>isco_manager</t>
+  </si>
+  <si>
     <t>isco_professional</t>
   </si>
   <si>
@@ -82,12 +94,21 @@
     <t>log_commute_km</t>
   </si>
   <si>
+    <t>marital_status_divorced</t>
+  </si>
+  <si>
     <t>marital_status_married</t>
   </si>
   <si>
+    <t>marital_status_married_sep</t>
+  </si>
+  <si>
     <t>n_adults</t>
   </si>
   <si>
+    <t>n_small_children</t>
+  </si>
+  <si>
     <t>parking_home</t>
   </si>
   <si>
@@ -130,6 +151,9 @@
     <t>wk_firm_size_10_49</t>
   </si>
   <si>
+    <t>wk_firm_size_1_9</t>
+  </si>
+  <si>
     <t>wk_firm_size_250_inf</t>
   </si>
   <si>
@@ -145,12 +169,18 @@
     <t>wk_noga_admin</t>
   </si>
   <si>
+    <t>wk_noga_arts</t>
+  </si>
+  <si>
     <t>wk_noga_construction</t>
   </si>
   <si>
     <t>wk_noga_education</t>
   </si>
   <si>
+    <t>wk_noga_el_gas_steam</t>
+  </si>
+  <si>
     <t>wk_noga_finance_insurance</t>
   </si>
   <si>
@@ -172,6 +202,9 @@
     <t>wk_noga_real_estate</t>
   </si>
   <si>
+    <t>wk_noga_retail</t>
+  </si>
+  <si>
     <t>wk_noga_scientific</t>
   </si>
   <si>
@@ -181,108 +214,126 @@
     <t>wk_schedule_annual</t>
   </si>
   <si>
+    <t>wk_schedule_fixed</t>
+  </si>
+  <si>
     <t>wk_schedule_flexible</t>
   </si>
   <si>
     <t>wk_schedule_other</t>
   </si>
   <si>
+    <t>wk_shiftwork</t>
+  </si>
+  <si>
     <t>wk_urbanization_high</t>
   </si>
   <si>
     <t>wk_urbanization_low</t>
   </si>
   <si>
+    <t>wk_urbanization_medium</t>
+  </si>
+  <si>
     <t>identifier for each individual</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>higher education (ternary: mandatory, secondary, higher)</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>mandatory education (ternary: mandatory, secondary, higher)</t>
+  </si>
+  <si>
+    <t>secondary education (ternary: mandatory, secondary, higher)</t>
+  </si>
+  <si>
+    <t>has children</t>
+  </si>
+  <si>
+    <t>has a company car</t>
+  </si>
+  <si>
+    <t>monthly income of all household members in 1000 CHF/month</t>
+  </si>
+  <si>
+    <t>1000 CHF/month</t>
+  </si>
+  <si>
+    <t>has a driving license (for cars)</t>
+  </si>
+  <si>
+    <t>manages or leads people at work</t>
+  </si>
+  <si>
+    <t>ISCO category: Craft and related trades workers</t>
+  </si>
+  <si>
+    <t>ISCO category: Elementary occupations</t>
+  </si>
+  <si>
+    <t>ISCO category: Professionals</t>
+  </si>
+  <si>
+    <t>ISCO category: Service and sales workers</t>
+  </si>
+  <si>
+    <t>ISCO category: Technicians and associate professionals</t>
+  </si>
+  <si>
+    <t>log of commute distance</t>
+  </si>
+  <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>higher education (ternary: mandatory, secondary, higher)</t>
-  </si>
-  <si>
-    <t>dummy</t>
-  </si>
-  <si>
-    <t>mandatory education (ternary: mandatory, secondary, higher)</t>
-  </si>
-  <si>
-    <t>secondary education (ternary: mandatory, secondary, higher)</t>
-  </si>
-  <si>
-    <t>has children</t>
-  </si>
-  <si>
-    <t>has a company car</t>
-  </si>
-  <si>
-    <t>monthly income of all household members in 1000 CHF/month</t>
-  </si>
-  <si>
-    <t>1000 CHF/month</t>
-  </si>
-  <si>
-    <t>has a driving license (for cars)</t>
-  </si>
-  <si>
-    <t>manages or leads people at work</t>
-  </si>
-  <si>
-    <t>ISCO category: Craft and related trades workers</t>
-  </si>
-  <si>
-    <t>ISCO category: Elementary occupations</t>
-  </si>
-  <si>
-    <t>ISCO category: Professionals</t>
-  </si>
-  <si>
-    <t>ISCO category: Service and sales workers</t>
-  </si>
-  <si>
-    <t>ISCO category: Technicians and associate professionals</t>
-  </si>
-  <si>
-    <t>log of commute distance</t>
-  </si>
-  <si>
     <t>log km</t>
   </si>
   <si>
     <t>is married</t>
   </si>
   <si>
+    <t>number of adults living in same household</t>
+  </si>
+  <si>
+    <t>car parking available at home</t>
+  </si>
+  <si>
+    <t>car parking available at work</t>
+  </si>
+  <si>
+    <t>has access to second residence (holiday house) in Switzerland</t>
+  </si>
+  <si>
+    <t>has access to second residence (holiday house) outside Switzerland</t>
+  </si>
+  <si>
+    <t>residence type: apartment</t>
+  </si>
+  <si>
+    <t>residence type: single (family) house</t>
+  </si>
+  <si>
+    <t>urbanisierungsgrad residence (ternary) high as defined by https://www.agvchapp.bfs.admin.ch/de/typologies/query</t>
+  </si>
+  <si>
+    <t>urbanisierungsgrad residence (ternary) low as defined by https://www.agvchapp.bfs.admin.ch/de/typologies/query</t>
+  </si>
+  <si>
+    <t>urbanisierungsgrad residence (ternary) medium as defined by https://www.agvchapp.bfs.admin.ch/de/typologies/query</t>
+  </si>
+  <si>
     <t>is male</t>
   </si>
   <si>
-    <t>number of adults living in same household</t>
-  </si>
-  <si>
-    <t>car parking available at home</t>
-  </si>
-  <si>
-    <t>car parking available at work</t>
-  </si>
-  <si>
-    <t>has access to second residence (holiday house) in Switzerland</t>
-  </si>
-  <si>
-    <t>has access to second residence (holiday house) outside Switzerland</t>
-  </si>
-  <si>
-    <t>residence type: apartment</t>
-  </si>
-  <si>
-    <t>residence type: single (family) house</t>
-  </si>
-  <si>
     <t>Swiss nationality</t>
   </si>
   <si>
@@ -292,25 +343,58 @@
     <t>number of days working from home in a typical week</t>
   </si>
   <si>
-    <t>number of employees 10 to 49 (small enterprise)</t>
-  </si>
-  <si>
-    <t>number of employees greater than 250 (big enterprise)</t>
-  </si>
-  <si>
-    <t>number of employees 50 to 249 (medium-sized enterprise)</t>
+    <t>days/week</t>
   </si>
   <si>
     <t>works full-time position (100%)</t>
   </si>
   <si>
-    <t>urbanisierungsgrad residence (ternary) high as defined by https://www.agvchapp.bfs.admin.ch/de/typologies/query</t>
-  </si>
-  <si>
-    <t>urbanisierungsgrad residence (ternary) low as defined by https://www.agvchapp.bfs.admin.ch/de/typologies/query</t>
-  </si>
-  <si>
-    <t>urbanisierungsgrad residence (ternary) medium as defined by https://www.agvchapp.bfs.admin.ch/de/typologies/query</t>
+    <t>NOGA sector: Accommodation and food service activities</t>
+  </si>
+  <si>
+    <t>NOGA sector: Administrative and support service activities</t>
+  </si>
+  <si>
+    <t>NOGA sector: Construction</t>
+  </si>
+  <si>
+    <t>NOGA sector: Education</t>
+  </si>
+  <si>
+    <t>NOGA sector: Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>NOGA sector: Human health and social work activities</t>
+  </si>
+  <si>
+    <t>NOGA sector: Information and communication</t>
+  </si>
+  <si>
+    <t>NOGA sector: Manufacturing</t>
+  </si>
+  <si>
+    <t>NOGA sector: Other service activities</t>
+  </si>
+  <si>
+    <t>NOGA sector: Public administration and defense, compulsory social security</t>
+  </si>
+  <si>
+    <t>NOGA sector: Real estate activities</t>
+  </si>
+  <si>
+    <t>NOGA sector: Professional, scientific and technical activities</t>
+  </si>
+  <si>
+    <t>NOGA sector: Transportation and storage</t>
+  </si>
+  <si>
+    <t>annual working hours model</t>
+  </si>
+  <si>
+    <t>fully flexible working hours</t>
+  </si>
+  <si>
+    <t>not annual, not fixed,  not flexible (reference)</t>
   </si>
   <si>
     <t>urbanisierungsgrad workarea (ternary) high as defined by https://www.agvchapp.bfs.admin.ch/de/typologies/query</t>
@@ -319,58 +403,52 @@
     <t>urbanisierungsgrad workarea (ternary) low as defined by https://www.agvchapp.bfs.admin.ch/de/typologies/query</t>
   </si>
   <si>
-    <t>NOGA sector: Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>NOGA sector: Administrative and support service activities</t>
-  </si>
-  <si>
-    <t>NOGA sector: Construction</t>
-  </si>
-  <si>
-    <t>NOGA sector: Education</t>
-  </si>
-  <si>
-    <t>NOGA sector: Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>NOGA sector: Human health and social work activities</t>
-  </si>
-  <si>
-    <t>NOGA sector: Information and communication</t>
-  </si>
-  <si>
-    <t>NOGA sector: Manufacturing</t>
-  </si>
-  <si>
-    <t>NOGA sector: Other service activities</t>
-  </si>
-  <si>
-    <t>NOGA sector: Public administration and defense, compulsory social security</t>
-  </si>
-  <si>
-    <t>NOGA sector: Real estate activities</t>
-  </si>
-  <si>
-    <t>NOGA sector: Professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>NOGA sector: Transportation and storage</t>
-  </si>
-  <si>
-    <t>annual working hours model</t>
-  </si>
-  <si>
-    <t>fully flexible working hours</t>
-  </si>
-  <si>
-    <t>not annual, not fixed,  not flexible (reference)</t>
-  </si>
-  <si>
-    <t>days/week</t>
-  </si>
-  <si>
-    <t>impute</t>
+    <t>number of employees greater than 250</t>
+  </si>
+  <si>
+    <t>number of employees 50 to 249</t>
+  </si>
+  <si>
+    <t>number of employees 10 to 49</t>
+  </si>
+  <si>
+    <t>works in shifts</t>
+  </si>
+  <si>
+    <t>urbanisierungsgrad workarea (ternary) medium as defined by https://www.agvchapp.bfs.admin.ch/de/typologies/query</t>
+  </si>
+  <si>
+    <t>fixed working hours</t>
+  </si>
+  <si>
+    <t>NOGA sector: Wholesale and retail trade, repair of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>NOGA sector: Arts, entertainment and recreation</t>
+  </si>
+  <si>
+    <t>NOGA sector: Electricity, gas, steam and air-conditioning supply</t>
+  </si>
+  <si>
+    <t>number of employees 1 to 9</t>
+  </si>
+  <si>
+    <t>number of small children (&lt; 6 years)</t>
+  </si>
+  <si>
+    <t>is married but live in separate households</t>
+  </si>
+  <si>
+    <t>is divorced</t>
+  </si>
+  <si>
+    <t>ISCO category: Managers</t>
+  </si>
+  <si>
+    <t>ISCO category: Clerical support workers</t>
+  </si>
+  <si>
+    <t>ISCO category: Plant and machine operators and assemblers</t>
   </si>
 </sst>
 </file>
@@ -406,11 +484,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,14 +504,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07878160-72FE-4EF2-AC94-B703ECB1F82A}" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0">
-  <autoFilter ref="A1:E54" xr:uid="{5443E006-68B7-4ECB-8AF7-5015DEFCC871}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0D1E00CE-2096-46F6-9127-2CB64A77BB98}" name="Table3" displayName="Table3" ref="A1:E67" totalsRowShown="0">
+  <autoFilter ref="A1:E67" xr:uid="{0B3E1267-BEA0-43A6-AF41-4E60F2D83C6C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FF810805-62D5-4E62-ABE0-33B57563B1E5}" name="variable"/>
-    <tableColumn id="2" xr3:uid="{382AEA60-0008-4815-932D-D096C2EE00BA}" name="description"/>
-    <tableColumn id="3" xr3:uid="{689ECE88-33C8-4FFB-B8A2-CD0FBB029D52}" name="type"/>
-    <tableColumn id="4" xr3:uid="{2C25E399-37F8-4D3C-AA2D-7A0D069EE252}" name="unit"/>
-    <tableColumn id="5" xr3:uid="{29966B17-D5C2-42A3-A298-42493564E11E}" name="impute"/>
+    <tableColumn id="1" xr3:uid="{82D45F63-28F7-4FFB-8687-53559BE25995}" name="variable"/>
+    <tableColumn id="2" xr3:uid="{08734C56-5608-4819-AFA7-FB5AFF05D7A4}" name="description"/>
+    <tableColumn id="3" xr3:uid="{0D7CE062-3281-42F5-9741-4167ED646DFF}" name="type"/>
+    <tableColumn id="4" xr3:uid="{4594FB5B-1EE6-48BC-BBE3-9D253808C006}" name="unit"/>
+    <tableColumn id="5" xr3:uid="{EEE561B6-C351-4BE8-B68E-31601EA50BAD}" name="imp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,6 +826,7 @@
     <col min="2" max="2" width="103.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -767,608 +843,947 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>43.22622779519331</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>0.49895506792058514</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>4.8589341692789965E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>0.45245559038662486</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>0.38244514106583072</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>0.11859979101358412</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="E9">
+        <v>10.907001044932079</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>0.91849529780564265</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>0.34482758620689657</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>0.18861024033437826</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>5.1724137931034482E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>1.7763845350052248E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>1.3584117032392894E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>0.2554858934169279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>0.24399164054336467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>0.10606060606060606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20">
+        <v>1.9772398417620261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>6.4263322884012541E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>0.50365726227795193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>1.2016718913270637E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <v>2.0167189132706373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="E25">
+        <v>0.20480668756530826</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>0.93887147335423193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>0.49373040752351099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>96</v>
       </c>
       <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28">
+        <v>0.10658307210031348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>9.9268547544409613E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>0.64420062695924762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31">
+        <v>0.25862068965517243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>0.40804597701149425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>0.11964472309299895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34">
+        <v>0.4723092998955068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35">
+        <v>0.51358411703239293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36">
+        <v>0.79989550679205856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <v>0.11434735706580366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38">
+        <v>0.52804746494066879</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39">
+        <v>0.17136886102403343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40">
+        <v>7.9937304075235111E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41">
+        <v>0.52037617554858939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42">
+        <v>0.2283176593521421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43">
+        <v>0.60553814002089867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44">
+        <v>2.8213166144200628E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45">
+        <v>6.8965517241379309E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46">
+        <v>1.0971786833855799E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47">
+        <v>7.3667711598746077E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>0.1013584117032393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49">
+        <v>1.5673981191222569E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50">
+        <v>0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51">
+        <v>0.14838035527690699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52">
+        <v>7.9414838035527693E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53">
+        <v>9.979101358411703E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54">
+        <v>5.7993730407523508E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55">
+        <v>7.0010449320794144E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56">
+        <v>1.1494252873563218E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57">
+        <v>2.9258098223615466E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58">
+        <v>4.4409613375130615E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" t="s">
-        <v>62</v>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60">
+        <v>0.25287356321839083</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61">
+        <v>0.57784743991640541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62">
+        <v>0.14263322884012539</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63">
+        <v>2.664576802507837E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64">
+        <v>0.11442006269592477</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65">
+        <v>0.61285266457680254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66">
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67">
+        <v>0.32654127481713691</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>